--- a/df_REFERENCE_PARAMETERS.xlsx
+++ b/df_REFERENCE_PARAMETERS.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>56.12</v>
+        <v>53.64</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>70</v>
       </c>
       <c r="I3" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39.75</v>
+        <v>34.77</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59.08</v>
+        <v>56.59</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>59.08</v>
+        <v>56.59</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>59.08</v>
+        <v>56.59</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>52.23</v>
+        <v>44.77</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>56.8</v>
+        <v>54.32</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J21" t="n">
         <v>15</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>61.35</v>
+        <v>58.86</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>61.35</v>
+        <v>58.86</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61.35</v>
+        <v>58.86</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>61.35</v>
+        <v>58.86</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J33" t="n">
         <v>6</v>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.22</v>
+        <v>42.27</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68.14</v>
+        <v>60.68</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>72.69</v>
+        <v>65.23</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.13</v>
+        <v>58.18</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>100</v>
       </c>
       <c r="I46" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J46" t="n">
         <v>2</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>100</v>
       </c>
       <c r="I47" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>100</v>
       </c>
       <c r="I49" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.22</v>
+        <v>42.27</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.75</v>
+        <v>29.77</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>30</v>
       </c>
       <c r="I57" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J57" t="n">
         <v>4</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.24</v>
+        <v>11.36</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>99.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>65.90000000000001</v>
+        <v>63.41</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="I63" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>100</v>
       </c>
       <c r="I65" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>56.8</v>
+        <v>54.32</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>100</v>
       </c>
       <c r="I67" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J72" t="n">
         <v>4</v>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>50.81</v>
+        <v>35.88</v>
       </c>
       <c r="F80" t="n">
         <v>94.44</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="F81" t="n">
         <v>100</v>
@@ -3667,7 +3667,7 @@
         <v>100</v>
       </c>
       <c r="I81" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="F82" t="n">
         <v>100</v>
@@ -3707,7 +3707,7 @@
         <v>100</v>
       </c>
       <c r="I82" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>79.16</v>
+        <v>76.67</v>
       </c>
       <c r="F84" t="n">
         <v>16.67</v>
@@ -3787,7 +3787,7 @@
         <v>100</v>
       </c>
       <c r="I84" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J84" t="n">
         <v>27</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.66</v>
+        <v>45.68</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>30</v>
       </c>
       <c r="I86" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>100</v>
       </c>
       <c r="I87" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>100</v>
       </c>
       <c r="I90" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J90" t="n">
         <v>5</v>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>76.34</v>
+        <v>66.39</v>
       </c>
       <c r="F97" t="n">
         <v>5.56</v>
@@ -4307,7 +4307,7 @@
         <v>100</v>
       </c>
       <c r="I97" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J97" t="n">
         <v>12</v>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>68.14</v>
+        <v>60.68</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>100</v>
       </c>
       <c r="I100" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>100</v>
       </c>
       <c r="I102" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="I104" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.74</v>
+        <v>13.86</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="I106" t="n">
-        <v>99.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>74.97</v>
+        <v>70</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>100</v>
       </c>
       <c r="I107" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>100</v>
       </c>
       <c r="I108" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="I109" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="I110" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>100</v>
       </c>
       <c r="I111" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.8</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>99.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>88.88</v>
+        <v>86.39</v>
       </c>
       <c r="F114" t="n">
         <v>55.56</v>
@@ -4983,7 +4983,7 @@
         <v>100</v>
       </c>
       <c r="I114" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>100</v>
       </c>
       <c r="I115" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>100</v>
       </c>
       <c r="I116" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J116" t="n">
         <v>3</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>100</v>
       </c>
       <c r="I119" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>100</v>
       </c>
       <c r="I120" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>65.90000000000001</v>
+        <v>63.41</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>100</v>
       </c>
       <c r="I121" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J121" t="n">
         <v>2</v>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>72.68000000000001</v>
+        <v>62.73</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -5303,7 +5303,7 @@
         <v>100</v>
       </c>
       <c r="I122" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J122" t="n">
         <v>15</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>100</v>
       </c>
       <c r="I123" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>100</v>
       </c>
       <c r="I127" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>100</v>
       </c>
       <c r="I128" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>100</v>
       </c>
       <c r="I129" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>100</v>
       </c>
       <c r="I130" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>41.08</v>
+        <v>28.64</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>10</v>
       </c>
       <c r="I137" t="n">
-        <v>99.75</v>
+        <v>50</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.08</v>
+        <v>28.64</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="I138" t="n">
-        <v>99.75</v>
+        <v>50</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>27.23</v>
+        <v>19.77</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>100</v>
       </c>
       <c r="I142" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>38.45</v>
+        <v>13.64</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>99.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.29</v>
+        <v>39.32</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>50</v>
       </c>
       <c r="I145" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>77.23</v>
+        <v>69.77</v>
       </c>
       <c r="F150" t="n">
         <v>100</v>
@@ -6423,7 +6423,7 @@
         <v>100</v>
       </c>
       <c r="I150" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J150" t="n">
         <v>9</v>
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>100</v>
       </c>
       <c r="I151" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J151" t="n">
         <v>4</v>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>100</v>
       </c>
       <c r="I153" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J153" t="n">
         <v>3</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>100</v>
       </c>
       <c r="I154" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.49</v>
+        <v>44.55</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>100</v>
       </c>
       <c r="I159" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>77.22</v>
+        <v>67.27</v>
       </c>
       <c r="F161" t="n">
         <v>100</v>
@@ -6863,7 +6863,7 @@
         <v>100</v>
       </c>
       <c r="I161" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J161" t="n">
         <v>13</v>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>66.72</v>
+        <v>51.79</v>
       </c>
       <c r="F162" t="n">
         <v>94.44</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="F163" t="n">
         <v>100</v>
@@ -6943,7 +6943,7 @@
         <v>60</v>
       </c>
       <c r="I163" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="F164" t="n">
         <v>100</v>
@@ -6983,7 +6983,7 @@
         <v>60</v>
       </c>
       <c r="I164" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
       <c r="J164" t="n">
         <v>9</v>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>79.51000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="F166" t="n">
         <v>100</v>
@@ -7063,7 +7063,7 @@
         <v>100</v>
       </c>
       <c r="I166" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J166" t="n">
         <v>17</v>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>54.46</v>
+        <v>37.05</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>100</v>
       </c>
       <c r="I167" t="n">
-        <v>99.65000000000001</v>
+        <v>30</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="F169" t="n">
         <v>100</v>
@@ -7183,7 +7183,7 @@
         <v>60</v>
       </c>
       <c r="I169" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>67.2</v>
+        <v>52.27</v>
       </c>
       <c r="F170" t="n">
         <v>100</v>
@@ -7223,7 +7223,7 @@
         <v>60</v>
       </c>
       <c r="I170" t="n">
-        <v>99.7</v>
+        <v>40</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>57.48</v>
+        <v>52.5</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>30</v>
       </c>
       <c r="I178" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.35</v>
+        <v>4.54</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>99.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>81.92</v>
+        <v>76.94</v>
       </c>
       <c r="F180" t="n">
         <v>27.78</v>
@@ -7623,7 +7623,7 @@
         <v>100</v>
       </c>
       <c r="I180" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J180" t="n">
         <v>12</v>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.22</v>
+        <v>17.27</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J181" t="n">
         <v>2</v>
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>54.46</v>
+        <v>37.05</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>100</v>
       </c>
       <c r="I184" t="n">
-        <v>99.65000000000001</v>
+        <v>30</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         <v>100</v>
       </c>
       <c r="I185" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J185" t="n">
         <v>2</v>
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7863,7 +7863,7 @@
         <v>100</v>
       </c>
       <c r="I186" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J186" t="n">
         <v>3</v>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>49.98</v>
+        <v>45</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>61.34</v>
+        <v>56.36</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         <v>100</v>
       </c>
       <c r="I190" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>100</v>
       </c>
       <c r="I191" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.17</v>
+        <v>7.27</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>99.59999999999999</v>
+        <v>20</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -8131,7 +8131,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>56.12</v>
+        <v>53.64</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>70</v>
       </c>
       <c r="I193" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.22</v>
+        <v>17.27</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>59.06</v>
+        <v>54.09</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>100</v>
       </c>
       <c r="I201" t="n">
-        <v>99.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>59.08</v>
+        <v>56.59</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>100</v>
       </c>
       <c r="I202" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>74.98999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>100</v>
       </c>
       <c r="I203" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J203" t="n">
         <v>4</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>74.95</v>
+        <v>65</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>100</v>
       </c>
       <c r="I204" t="n">
-        <v>99.8</v>
+        <v>60</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>74.95999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>100</v>
       </c>
       <c r="I205" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>100</v>
       </c>
       <c r="I206" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>100</v>
       </c>
       <c r="I207" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>100</v>
       </c>
       <c r="I209" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>70.42</v>
+        <v>62.95</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -8819,7 +8819,7 @@
         <v>100</v>
       </c>
       <c r="I210" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>100</v>
       </c>
       <c r="I211" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>70.42</v>
+        <v>62.95</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>100</v>
       </c>
       <c r="I213" t="n">
-        <v>99.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>68.17</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -8979,7 +8979,7 @@
         <v>100</v>
       </c>
       <c r="I214" t="n">
-        <v>99.95</v>
+        <v>90</v>
       </c>
       <c r="J214" t="n">
         <v>9</v>

--- a/df_REFERENCE_PARAMETERS.xlsx
+++ b/df_REFERENCE_PARAMETERS.xlsx
@@ -684,7 +684,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ammonium, ammonia</t>
+          <t>Ammonium and ammonia concentration parameters in water bodies</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.27</v>
+        <v>90.28</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>61.11</v>
       </c>
       <c r="G7" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -7571,13 +7571,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>4.54</v>
+        <v>25</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>

--- a/df_REFERENCE_PARAMETERS.xlsx
+++ b/df_REFERENCE_PARAMETERS.xlsx
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.27</v>
+        <v>50</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>

--- a/df_REFERENCE_PARAMETERS.xlsx
+++ b/df_REFERENCE_PARAMETERS.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Recent (%)</t>
+          <t>Up-To-Date (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/df_REFERENCE_PARAMETERS.xlsx
+++ b/df_REFERENCE_PARAMETERS.xlsx
@@ -503,13 +503,13 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.77</v>
+        <v>39.32</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56.59</v>
+        <v>72.5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>56.59</v>
+        <v>70.23</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.36</v>
+        <v>90.91</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>67.42</v>
+        <v>83.33</v>
       </c>
       <c r="F11" t="n">
         <v>33.33</v>
       </c>
       <c r="G11" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>56.59</v>
+        <v>61.14</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>36.36</v>
+        <v>54.55</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>81.31</v>
+        <v>97.22</v>
       </c>
       <c r="F13" t="n">
         <v>88.89</v>
       </c>
       <c r="G13" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -979,13 +979,13 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>44.77</v>
+        <v>51.59</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.09</v>
+        <v>36.36</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>93.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
@@ -1059,13 +1059,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44.77</v>
+        <v>67.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
         <v>100</v>
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>54.32</v>
+        <v>72.5</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
         <v>100</v>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>56.82</v>
+        <v>75</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
         <v>100</v>
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>58.86</v>
+        <v>72.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.86</v>
+        <v>72.5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>58.86</v>
+        <v>72.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.86</v>
+        <v>72.5</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1939,13 +1939,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>83.59</v>
+        <v>97.22</v>
       </c>
       <c r="F38" t="n">
         <v>88.89</v>
       </c>
       <c r="G38" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.27</v>
+        <v>65</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
@@ -2019,13 +2019,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60.68</v>
+        <v>67.5</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>65.23</v>
+        <v>67.5</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
         <v>100</v>
@@ -2139,13 +2139,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -2179,13 +2179,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>58.18</v>
+        <v>65</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -2419,13 +2419,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -2619,13 +2619,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.27</v>
+        <v>58.18</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
@@ -2659,13 +2659,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2699,13 +2699,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.77</v>
+        <v>52.5</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
         <v>30</v>
@@ -2735,13 +2735,13 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="F58" t="n">
         <v>27.78</v>
       </c>
       <c r="G58" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>68.31</v>
+        <v>81.94</v>
       </c>
       <c r="F61" t="n">
         <v>27.78</v>
       </c>
       <c r="G61" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H61" t="n">
         <v>100</v>
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>54.32</v>
+        <v>72.5</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
         <v>100</v>
@@ -3175,13 +3175,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H70" t="n">
         <v>100</v>
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H71" t="n">
         <v>100</v>
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>70.45</v>
+        <v>75</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="H73" t="n">
         <v>100</v>
@@ -3415,13 +3415,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H75" t="n">
         <v>100</v>
@@ -3455,13 +3455,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H76" t="n">
         <v>100</v>
@@ -3495,13 +3495,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>59.09</v>
+        <v>75</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H77" t="n">
         <v>100</v>
@@ -3615,13 +3615,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.88</v>
+        <v>51.79</v>
       </c>
       <c r="F80" t="n">
         <v>94.44</v>
       </c>
       <c r="G80" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3655,13 +3655,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="F81" t="n">
         <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
         <v>100</v>
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="F82" t="n">
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H82" t="n">
         <v>100</v>
@@ -3855,13 +3855,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.68</v>
+        <v>52.5</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H86" t="n">
         <v>30</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H87" t="n">
         <v>100</v>
@@ -3935,13 +3935,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>77.14</v>
+        <v>93.06</v>
       </c>
       <c r="F88" t="n">
         <v>72.22</v>
       </c>
       <c r="G88" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H88" t="n">
         <v>100</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>70.58</v>
+        <v>81.94</v>
       </c>
       <c r="F91" t="n">
         <v>27.78</v>
       </c>
       <c r="G91" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="H91" t="n">
         <v>100</v>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H94" t="n">
         <v>100</v>
@@ -4215,13 +4215,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>59.04</v>
+        <v>77.22</v>
       </c>
       <c r="F95" t="n">
         <v>88.89</v>
       </c>
       <c r="G95" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H95" t="n">
         <v>20</v>
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>74.5</v>
+        <v>97.22</v>
       </c>
       <c r="F96" t="n">
         <v>88.89</v>
       </c>
       <c r="G96" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H96" t="n">
         <v>100</v>
@@ -4335,13 +4335,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>56.44</v>
+        <v>79.17</v>
       </c>
       <c r="F98" t="n">
         <v>16.67</v>
       </c>
       <c r="G98" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H98" t="n">
         <v>100</v>
@@ -4375,13 +4375,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>60.68</v>
+        <v>67.5</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H100" t="n">
         <v>100</v>
@@ -4535,13 +4535,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H109" t="n">
         <v>100</v>
@@ -4811,13 +4811,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H110" t="n">
         <v>100</v>
@@ -4851,13 +4851,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H111" t="n">
         <v>100</v>
@@ -5091,13 +5091,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="F117" t="n">
         <v>94.44</v>
       </c>
       <c r="G117" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H117" t="n">
         <v>100</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>80.43000000000001</v>
+        <v>98.61</v>
       </c>
       <c r="F118" t="n">
         <v>94.44</v>
       </c>
       <c r="G118" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H118" t="n">
         <v>100</v>
@@ -5251,13 +5251,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>63.41</v>
+        <v>72.5</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="H121" t="n">
         <v>100</v>
@@ -5291,13 +5291,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>62.73</v>
+        <v>65</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H122" t="n">
         <v>100</v>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>77.53</v>
+        <v>88.89</v>
       </c>
       <c r="F124" t="n">
         <v>55.56</v>
       </c>
       <c r="G124" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="H124" t="n">
         <v>100</v>
@@ -5451,13 +5451,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H126" t="n">
         <v>100</v>
@@ -5971,13 +5971,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>74.75</v>
+        <v>86.11</v>
       </c>
       <c r="F139" t="n">
         <v>44.44</v>
       </c>
       <c r="G139" t="n">
-        <v>54.55</v>
+        <v>100</v>
       </c>
       <c r="H139" t="n">
         <v>100</v>
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>83.33</v>
+        <v>81.94</v>
       </c>
       <c r="F144" t="n">
-        <v>33.33</v>
+        <v>27.78</v>
       </c>
       <c r="G144" t="n">
         <v>100</v>
@@ -6211,13 +6211,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>39.32</v>
+        <v>41.59</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
       <c r="H145" t="n">
         <v>50</v>
@@ -6251,13 +6251,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6331,13 +6331,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6371,13 +6371,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>70.33</v>
+        <v>93.06</v>
       </c>
       <c r="F149" t="n">
         <v>72.22</v>
       </c>
       <c r="G149" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H149" t="n">
         <v>100</v>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>69.77</v>
+        <v>92.5</v>
       </c>
       <c r="F150" t="n">
         <v>100</v>
       </c>
       <c r="G150" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H150" t="n">
         <v>100</v>
@@ -6491,13 +6491,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H152" t="n">
         <v>100</v>
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H153" t="n">
         <v>100</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H154" t="n">
         <v>100</v>
@@ -6611,13 +6611,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H155" t="n">
         <v>100</v>
@@ -6651,13 +6651,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H156" t="n">
         <v>100</v>
@@ -6691,13 +6691,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>72.34999999999999</v>
+        <v>79.17</v>
       </c>
       <c r="F157" t="n">
         <v>16.67</v>
       </c>
       <c r="G157" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H157" t="n">
         <v>100</v>
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>44.55</v>
+        <v>46.82</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
       <c r="H159" t="n">
         <v>100</v>
@@ -6811,13 +6811,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4.54</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6851,13 +6851,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>67.27</v>
+        <v>90</v>
       </c>
       <c r="F161" t="n">
         <v>100</v>
       </c>
       <c r="G161" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H161" t="n">
         <v>100</v>
@@ -6931,13 +6931,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.27</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F163" t="n">
         <v>100</v>
       </c>
       <c r="G163" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="H163" t="n">
         <v>60</v>
@@ -6971,13 +6971,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>52.27</v>
+        <v>75</v>
       </c>
       <c r="F164" t="n">
         <v>100</v>
       </c>
       <c r="G164" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H164" t="n">
         <v>60</v>
@@ -7011,13 +7011,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>72.05</v>
+        <v>92.5</v>
       </c>
       <c r="F166" t="n">
         <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="H166" t="n">
         <v>100</v>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>78.16</v>
+        <v>98.61</v>
       </c>
       <c r="F168" t="n">
         <v>94.44</v>
       </c>
       <c r="G168" t="n">
-        <v>18.18</v>
+        <v>100</v>
       </c>
       <c r="H168" t="n">
         <v>100</v>
@@ -7171,13 +7171,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.27</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F169" t="n">
         <v>100</v>
       </c>
       <c r="G169" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="H169" t="n">
         <v>60</v>
@@ -7211,13 +7211,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>52.27</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F170" t="n">
         <v>100</v>
       </c>
       <c r="G170" t="n">
-        <v>9.09</v>
+        <v>72.73</v>
       </c>
       <c r="H170" t="n">
         <v>60</v>
@@ -7251,13 +7251,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>61.36</v>
+        <v>75</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H171" t="n">
         <v>100</v>
@@ -7291,13 +7291,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>45.45</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7411,13 +7411,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7571,13 +7571,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7691,13 +7691,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>89.52</v>
+        <v>98.61</v>
       </c>
       <c r="F182" t="n">
         <v>94.44</v>
       </c>
       <c r="G182" t="n">
-        <v>63.64</v>
+        <v>100</v>
       </c>
       <c r="H182" t="n">
         <v>100</v>
@@ -7891,13 +7891,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -8011,13 +8011,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>56.36</v>
+        <v>70</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>45.45</v>
+        <v>100</v>
       </c>
       <c r="H190" t="n">
         <v>100</v>
@@ -8211,13 +8211,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>72.73</v>
+        <v>75</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H195" t="n">
         <v>100</v>
@@ -8251,13 +8251,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>77.65000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="F196" t="n">
         <v>83.33</v>
       </c>
       <c r="G196" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="H196" t="n">
         <v>100</v>
@@ -8291,13 +8291,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="F197" t="n">
         <v>27.78</v>
       </c>
       <c r="G197" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H197" t="n">
         <v>100</v>
@@ -8331,13 +8331,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>73.11</v>
+        <v>95.83</v>
       </c>
       <c r="F198" t="n">
         <v>83.33</v>
       </c>
       <c r="G198" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H198" t="n">
         <v>100</v>
@@ -8371,13 +8371,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>60.61</v>
+        <v>83.33</v>
       </c>
       <c r="F199" t="n">
         <v>33.33</v>
       </c>
       <c r="G199" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H199" t="n">
         <v>100</v>
@@ -8411,13 +8411,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>59.22</v>
+        <v>81.94</v>
       </c>
       <c r="F200" t="n">
         <v>27.78</v>
       </c>
       <c r="G200" t="n">
-        <v>9.09</v>
+        <v>100</v>
       </c>
       <c r="H200" t="n">
         <v>100</v>
@@ -8451,13 +8451,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>54.09</v>
+        <v>70</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H201" t="n">
         <v>100</v>
@@ -8491,13 +8491,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>56.59</v>
+        <v>72.5</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>36.36</v>
+        <v>100</v>
       </c>
       <c r="H202" t="n">
         <v>100</v>
@@ -8647,13 +8647,13 @@
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H206" t="n">
         <v>100</v>
@@ -8687,13 +8687,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H207" t="n">
         <v>100</v>
@@ -8727,13 +8727,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>75.13</v>
+        <v>81.94</v>
       </c>
       <c r="F208" t="n">
         <v>27.78</v>
       </c>
       <c r="G208" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H208" t="n">
         <v>100</v>
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H209" t="n">
         <v>100</v>
@@ -8807,13 +8807,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>62.95</v>
+        <v>67.5</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="H210" t="n">
         <v>100</v>
@@ -8847,13 +8847,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H211" t="n">
         <v>100</v>
@@ -8887,13 +8887,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>68.18000000000001</v>
+        <v>75</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H212" t="n">
         <v>100</v>
@@ -8927,13 +8927,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>62.95</v>
+        <v>67.5</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>81.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="H213" t="n">
         <v>100</v>
@@ -8967,13 +8967,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>65.68000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="H214" t="n">
         <v>100</v>

--- a/df_REFERENCE_PARAMETERS.xlsx
+++ b/df_REFERENCE_PARAMETERS.xlsx
@@ -604,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alkalinity, Acidity, Raw pH</t>
+          <t>Alkalinity acidity and pH of the water column</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
